--- a/docs/env.xlsx
+++ b/docs/env.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/piau-im/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B774396F-2632-074B-838F-51A5B86D189A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52934CF-5E73-47BF-8763-D13A3E9AFF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86880" yWindow="2240" windowWidth="28140" windowHeight="16820" xr2:uid="{A860052D-382E-0A49-9AAC-AAC8AD804AB1}"/>
+    <workbookView xWindow="38775" yWindow="1515" windowWidth="15240" windowHeight="12345" xr2:uid="{A860052D-382E-0A49-9AAC-AAC8AD804AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>INPUT_FILE_PATH</t>
   </si>
   <si>
-    <t>/Users/alanjui/workspace/rime/piau-im/docs</t>
-  </si>
-  <si>
     <t>FILE_NAME</t>
   </si>
   <si>
@@ -67,20 +64,25 @@
     <t>TITLE</t>
   </si>
   <si>
-    <t>洛神賦</t>
-  </si>
-  <si>
     <t>IMAGE_URL</t>
   </si>
   <si>
     <t>https://imagepphcloud.thepaper.cn/pph/image/138/820/983.jpg</t>
+  </si>
+  <si>
+    <t>d:\work\Piau-Im\docs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -93,6 +95,12 @@
       <name val="黒体-繁"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Noto Sans TC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -123,11 +131,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -148,9 +159,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -188,7 +199,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -294,7 +305,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,7 +447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,14 +458,15 @@
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" customWidth="1"/>
-    <col min="2" max="2" width="19.296875" customWidth="1"/>
-    <col min="3" max="3" width="85.296875" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="61.90625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -466,35 +478,35 @@
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
